--- a/data/pca/factorExposure/factorExposure_2015-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0238501054763771</v>
+        <v>0.01470935042798816</v>
       </c>
       <c r="C2">
-        <v>0.02677670385904531</v>
+        <v>0.04804657212974436</v>
       </c>
       <c r="D2">
-        <v>0.1339169863402972</v>
+        <v>0.1399898891582317</v>
       </c>
       <c r="E2">
-        <v>-0.01675478742788789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.003915821062630337</v>
+      </c>
+      <c r="F2">
+        <v>0.002021284666854933</v>
+      </c>
+      <c r="G2">
+        <v>-0.1119150296304458</v>
+      </c>
+      <c r="H2">
+        <v>-0.05081860767313365</v>
+      </c>
+      <c r="I2">
+        <v>-0.05333750914167637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.009423208779304417</v>
+        <v>-0.01271087789408461</v>
       </c>
       <c r="C3">
-        <v>0.03595195603293883</v>
+        <v>0.02153801604590021</v>
       </c>
       <c r="D3">
-        <v>0.008655162780437714</v>
+        <v>0.01034830272143238</v>
       </c>
       <c r="E3">
-        <v>-0.03794705193199975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.03205309972485695</v>
+      </c>
+      <c r="F3">
+        <v>0.0005308749788858746</v>
+      </c>
+      <c r="G3">
+        <v>-0.07277361211954531</v>
+      </c>
+      <c r="H3">
+        <v>-0.004725581447025523</v>
+      </c>
+      <c r="I3">
+        <v>0.08852956347043062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03740865975861857</v>
+        <v>0.0231491993014535</v>
       </c>
       <c r="C4">
-        <v>0.06933519384734094</v>
+        <v>0.0921370528152467</v>
       </c>
       <c r="D4">
-        <v>0.1393289832194151</v>
+        <v>0.1503706002919317</v>
       </c>
       <c r="E4">
-        <v>-0.07395301538297493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0188181062023402</v>
+      </c>
+      <c r="F4">
+        <v>0.08654115887885176</v>
+      </c>
+      <c r="G4">
+        <v>0.001545854546698281</v>
+      </c>
+      <c r="H4">
+        <v>-0.04561398958825398</v>
+      </c>
+      <c r="I4">
+        <v>-0.01907246041673876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02790427570664722</v>
+        <v>0.02720824703481911</v>
       </c>
       <c r="C6">
-        <v>0.01392430761511717</v>
+        <v>0.03140580806090044</v>
       </c>
       <c r="D6">
-        <v>0.143551751537126</v>
+        <v>0.125610707226839</v>
       </c>
       <c r="E6">
-        <v>-0.03602132186223896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03455984826129897</v>
+      </c>
+      <c r="F6">
+        <v>0.04964216730787301</v>
+      </c>
+      <c r="G6">
+        <v>-0.04504514612723476</v>
+      </c>
+      <c r="H6">
+        <v>-0.02318158543736041</v>
+      </c>
+      <c r="I6">
+        <v>0.02467016117820769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009485294171020828</v>
+        <v>0.006764587746871991</v>
       </c>
       <c r="C7">
-        <v>0.0245208414883051</v>
+        <v>0.03522926280769362</v>
       </c>
       <c r="D7">
-        <v>0.1188679687223412</v>
+        <v>0.101563775049722</v>
       </c>
       <c r="E7">
-        <v>0.004997305382070384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.042592104046797</v>
+      </c>
+      <c r="F7">
+        <v>0.009549723287216386</v>
+      </c>
+      <c r="G7">
+        <v>-0.03238050966738153</v>
+      </c>
+      <c r="H7">
+        <v>-0.05968271675789666</v>
+      </c>
+      <c r="I7">
+        <v>0.04510534540823807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003493329680638577</v>
+        <v>-0.005428007500614521</v>
       </c>
       <c r="C8">
-        <v>0.03131155821452617</v>
+        <v>0.0382917368082038</v>
       </c>
       <c r="D8">
-        <v>0.08213738125137586</v>
+        <v>0.0814228273673552</v>
       </c>
       <c r="E8">
-        <v>-0.03251304533983745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01063839935650345</v>
+      </c>
+      <c r="F8">
+        <v>0.04624928578270736</v>
+      </c>
+      <c r="G8">
+        <v>-0.09757587362476328</v>
+      </c>
+      <c r="H8">
+        <v>0.009015159744905531</v>
+      </c>
+      <c r="I8">
+        <v>0.04374930162942949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03428597494161937</v>
+        <v>0.0193337657234318</v>
       </c>
       <c r="C9">
-        <v>0.06347080343777206</v>
+        <v>0.08140096872284953</v>
       </c>
       <c r="D9">
-        <v>0.1303770286439331</v>
+        <v>0.123892378240714</v>
       </c>
       <c r="E9">
-        <v>-0.06031161399823608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01027910245719927</v>
+      </c>
+      <c r="F9">
+        <v>0.05079315878752347</v>
+      </c>
+      <c r="G9">
+        <v>0.00377898110674739</v>
+      </c>
+      <c r="H9">
+        <v>-0.04884810157815937</v>
+      </c>
+      <c r="I9">
+        <v>-0.0003039528183095436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1563302831076199</v>
+        <v>0.2181057910825824</v>
       </c>
       <c r="C10">
-        <v>-0.1704683081661928</v>
+        <v>-0.1162194067285857</v>
       </c>
       <c r="D10">
-        <v>0.008599406808557275</v>
+        <v>0.00239431107397367</v>
       </c>
       <c r="E10">
-        <v>-0.04431899345415575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0250683715250296</v>
+      </c>
+      <c r="F10">
+        <v>0.04513445282741402</v>
+      </c>
+      <c r="G10">
+        <v>0.006963987836059925</v>
+      </c>
+      <c r="H10">
+        <v>0.06704544486623608</v>
+      </c>
+      <c r="I10">
+        <v>0.1016676372227671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02353258215916777</v>
+        <v>0.01288577235550074</v>
       </c>
       <c r="C11">
-        <v>0.04249313560450053</v>
+        <v>0.05326444113732257</v>
       </c>
       <c r="D11">
-        <v>0.05527708555014393</v>
+        <v>0.04817580859341881</v>
       </c>
       <c r="E11">
-        <v>0.01354608469974446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01830426844314637</v>
+      </c>
+      <c r="F11">
+        <v>-0.0136499214899438</v>
+      </c>
+      <c r="G11">
+        <v>-0.009109428998388501</v>
+      </c>
+      <c r="H11">
+        <v>-0.0439945879061432</v>
+      </c>
+      <c r="I11">
+        <v>-0.01305104244991336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0250267192694327</v>
+        <v>0.013145062586243</v>
       </c>
       <c r="C12">
-        <v>0.04109294254981647</v>
+        <v>0.05006986617263753</v>
       </c>
       <c r="D12">
-        <v>0.06804858152680192</v>
+        <v>0.05086707212584056</v>
       </c>
       <c r="E12">
-        <v>0.0002965324784907327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01547461873030307</v>
+      </c>
+      <c r="F12">
+        <v>-0.01571439042984693</v>
+      </c>
+      <c r="G12">
+        <v>-0.004525397763790333</v>
+      </c>
+      <c r="H12">
+        <v>-0.07283663639520448</v>
+      </c>
+      <c r="I12">
+        <v>0.0001164453199164044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004901830815988856</v>
+        <v>0.005967528312282598</v>
       </c>
       <c r="C13">
-        <v>0.02694794744449811</v>
+        <v>0.04404983169618953</v>
       </c>
       <c r="D13">
-        <v>0.1520751376957241</v>
+        <v>0.1560558544381908</v>
       </c>
       <c r="E13">
-        <v>-0.03773317988102961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03844648496073643</v>
+      </c>
+      <c r="F13">
+        <v>0.04074345283388593</v>
+      </c>
+      <c r="G13">
+        <v>-0.05493447962953587</v>
+      </c>
+      <c r="H13">
+        <v>-0.05775135445379944</v>
+      </c>
+      <c r="I13">
+        <v>0.07749796888519521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001040922044036417</v>
+        <v>0.0005579377131425997</v>
       </c>
       <c r="C14">
-        <v>0.02190535564837682</v>
+        <v>0.02966725954613364</v>
       </c>
       <c r="D14">
-        <v>0.1090267988345785</v>
+        <v>0.10495670068894</v>
       </c>
       <c r="E14">
-        <v>-0.02580601065622323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01796616938650605</v>
+      </c>
+      <c r="F14">
+        <v>0.02070375678620341</v>
+      </c>
+      <c r="G14">
+        <v>-0.06223380318356121</v>
+      </c>
+      <c r="H14">
+        <v>-0.1036235767439841</v>
+      </c>
+      <c r="I14">
+        <v>0.02304377112935732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002314671062723364</v>
+        <v>-0.001686523585842657</v>
       </c>
       <c r="C15">
-        <v>0.0119205980604928</v>
+        <v>0.01828849889280343</v>
       </c>
       <c r="D15">
-        <v>0.02490465555578549</v>
+        <v>0.05080873446601671</v>
       </c>
       <c r="E15">
-        <v>0.008947589053559206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.004038852900425011</v>
+      </c>
+      <c r="F15">
+        <v>0.002522598054774633</v>
+      </c>
+      <c r="G15">
+        <v>-0.02415443251336676</v>
+      </c>
+      <c r="H15">
+        <v>-0.01244391291713064</v>
+      </c>
+      <c r="I15">
+        <v>-0.02062328225095708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0216699835510982</v>
+        <v>0.01303156674180962</v>
       </c>
       <c r="C16">
-        <v>0.03900995363259887</v>
+        <v>0.04786661082801139</v>
       </c>
       <c r="D16">
-        <v>0.06284221329811503</v>
+        <v>0.04872450057727055</v>
       </c>
       <c r="E16">
-        <v>0.005458838460308621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0189264045358994</v>
+      </c>
+      <c r="F16">
+        <v>-0.007573312263051952</v>
+      </c>
+      <c r="G16">
+        <v>-0.001447243381816837</v>
+      </c>
+      <c r="H16">
+        <v>-0.05126350676570751</v>
+      </c>
+      <c r="I16">
+        <v>-0.009332556802824228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006309840449593546</v>
+        <v>0.001274610622663157</v>
       </c>
       <c r="C19">
-        <v>0.02219905197655015</v>
+        <v>0.02051508204642601</v>
       </c>
       <c r="D19">
-        <v>0.1353874477258073</v>
+        <v>0.08925140881657294</v>
       </c>
       <c r="E19">
-        <v>-0.07145033944189465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02251647562462418</v>
+      </c>
+      <c r="F19">
+        <v>0.007970711891411658</v>
+      </c>
+      <c r="G19">
+        <v>-0.03298960081685613</v>
+      </c>
+      <c r="H19">
+        <v>-0.06431365319740928</v>
+      </c>
+      <c r="I19">
+        <v>0.03558819510350084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006712622756102027</v>
+        <v>0.00493546182859577</v>
       </c>
       <c r="C20">
-        <v>0.03109277055013187</v>
+        <v>0.04122067232290248</v>
       </c>
       <c r="D20">
-        <v>0.0919638995263671</v>
+        <v>0.09945266812946267</v>
       </c>
       <c r="E20">
-        <v>-0.04384577447840344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.002034344745227685</v>
+      </c>
+      <c r="F20">
+        <v>0.02875616004992385</v>
+      </c>
+      <c r="G20">
+        <v>-0.03666962388895176</v>
+      </c>
+      <c r="H20">
+        <v>-0.0583398291382152</v>
+      </c>
+      <c r="I20">
+        <v>0.01799624492779743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007236306991028182</v>
+        <v>0.001502414807045703</v>
       </c>
       <c r="C21">
-        <v>0.03430656397582589</v>
+        <v>0.04345469436240294</v>
       </c>
       <c r="D21">
-        <v>0.1699734165993828</v>
+        <v>0.1425964503769016</v>
       </c>
       <c r="E21">
-        <v>-0.0806104083581016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.01708272280546512</v>
+      </c>
+      <c r="F21">
+        <v>0.06377168830468111</v>
+      </c>
+      <c r="G21">
+        <v>-0.06971497157051915</v>
+      </c>
+      <c r="H21">
+        <v>-0.1486922114961887</v>
+      </c>
+      <c r="I21">
+        <v>0.09878730289223749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001396446564064144</v>
+        <v>-0.005883558497057528</v>
       </c>
       <c r="C22">
-        <v>0.05735874435154041</v>
+        <v>0.07053492464576472</v>
       </c>
       <c r="D22">
-        <v>0.1983335485517176</v>
+        <v>0.2429365844898888</v>
       </c>
       <c r="E22">
-        <v>0.04904478489029301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04058561860623325</v>
+      </c>
+      <c r="F22">
+        <v>0.03048567258852757</v>
+      </c>
+      <c r="G22">
+        <v>-0.1852809639371451</v>
+      </c>
+      <c r="H22">
+        <v>0.4570971110396318</v>
+      </c>
+      <c r="I22">
+        <v>-0.2326873249149881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001189460155759531</v>
+        <v>-0.00542680252374129</v>
       </c>
       <c r="C23">
-        <v>0.05782379198873561</v>
+        <v>0.07141149339042169</v>
       </c>
       <c r="D23">
-        <v>0.1978705620223329</v>
+        <v>0.243601199994216</v>
       </c>
       <c r="E23">
-        <v>0.04883059865894213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.03761614705332936</v>
+      </c>
+      <c r="F23">
+        <v>0.02961587966411346</v>
+      </c>
+      <c r="G23">
+        <v>-0.1838045707446391</v>
+      </c>
+      <c r="H23">
+        <v>0.4570931352523931</v>
+      </c>
+      <c r="I23">
+        <v>-0.2338094941613041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02885568996347622</v>
+        <v>0.01405028136954991</v>
       </c>
       <c r="C24">
-        <v>0.05706670476418469</v>
+        <v>0.06495938596050845</v>
       </c>
       <c r="D24">
-        <v>0.07401690718155349</v>
+        <v>0.05734156857213303</v>
       </c>
       <c r="E24">
-        <v>-0.0007995624910514398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02035393196648056</v>
+      </c>
+      <c r="F24">
+        <v>-0.006577409665745386</v>
+      </c>
+      <c r="G24">
+        <v>-0.01430150796131135</v>
+      </c>
+      <c r="H24">
+        <v>-0.07542546509485971</v>
+      </c>
+      <c r="I24">
+        <v>-0.01239948082102069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03299255965301805</v>
+        <v>0.01829343558179467</v>
       </c>
       <c r="C25">
-        <v>0.04858076433037978</v>
+        <v>0.06094142424609572</v>
       </c>
       <c r="D25">
-        <v>0.06791390221285894</v>
+        <v>0.05573319127345383</v>
       </c>
       <c r="E25">
-        <v>-0.007492010823463188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008278617554645618</v>
+      </c>
+      <c r="F25">
+        <v>-0.009346444777456452</v>
+      </c>
+      <c r="G25">
+        <v>-0.003019717887700727</v>
+      </c>
+      <c r="H25">
+        <v>-0.0462842513528914</v>
+      </c>
+      <c r="I25">
+        <v>-0.004161740461493264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005403386477439299</v>
+        <v>0.008259366993037894</v>
       </c>
       <c r="C26">
-        <v>0.0153652029449095</v>
+        <v>0.02244711977749785</v>
       </c>
       <c r="D26">
-        <v>0.0809855666010204</v>
+        <v>0.07394420422109518</v>
       </c>
       <c r="E26">
-        <v>-0.02670925340852503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0178022643654556</v>
+      </c>
+      <c r="F26">
+        <v>0.02765441059484492</v>
+      </c>
+      <c r="G26">
+        <v>-0.03063344265289109</v>
+      </c>
+      <c r="H26">
+        <v>-0.07424880182122949</v>
+      </c>
+      <c r="I26">
+        <v>0.05535779388196525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2401352248017262</v>
+        <v>0.313951680261352</v>
       </c>
       <c r="C28">
-        <v>-0.218050618553516</v>
+        <v>-0.1331465851732769</v>
       </c>
       <c r="D28">
-        <v>0.008787293435042783</v>
+        <v>-0.006052100794435455</v>
       </c>
       <c r="E28">
-        <v>-0.06499234150232953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04568177074919289</v>
+      </c>
+      <c r="F28">
+        <v>0.0333876565208519</v>
+      </c>
+      <c r="G28">
+        <v>0.02262805127176393</v>
+      </c>
+      <c r="H28">
+        <v>0.03717772423612015</v>
+      </c>
+      <c r="I28">
+        <v>0.06094683253376659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001431636841336811</v>
+        <v>-7.168520944702549e-05</v>
       </c>
       <c r="C29">
-        <v>0.02026753082476514</v>
+        <v>0.02946404912986113</v>
       </c>
       <c r="D29">
-        <v>0.1019546970273478</v>
+        <v>0.102799481005105</v>
       </c>
       <c r="E29">
-        <v>-0.02006385363496511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03221736224037974</v>
+      </c>
+      <c r="F29">
+        <v>0.0299885502955597</v>
+      </c>
+      <c r="G29">
+        <v>-0.04880258822701456</v>
+      </c>
+      <c r="H29">
+        <v>-0.1012435241350642</v>
+      </c>
+      <c r="I29">
+        <v>0.03239740020195976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02453997981671637</v>
+        <v>0.01797623890946436</v>
       </c>
       <c r="C30">
-        <v>0.05990124239376453</v>
+        <v>0.0805875025049122</v>
       </c>
       <c r="D30">
-        <v>0.1647914530027994</v>
+        <v>0.1644000400831978</v>
       </c>
       <c r="E30">
-        <v>-0.01495711932184755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03729384420261601</v>
+      </c>
+      <c r="F30">
+        <v>0.0347434206200252</v>
+      </c>
+      <c r="G30">
+        <v>-0.03748650486635936</v>
+      </c>
+      <c r="H30">
+        <v>-0.03736929959556268</v>
+      </c>
+      <c r="I30">
+        <v>-0.06193374319100587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04284895303479906</v>
+        <v>0.01562411883085818</v>
       </c>
       <c r="C31">
-        <v>0.08241481032817473</v>
+        <v>0.08915048140648697</v>
       </c>
       <c r="D31">
-        <v>0.08224966252152652</v>
+        <v>0.0474119239513528</v>
       </c>
       <c r="E31">
-        <v>-0.02682489113458348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007963673426549512</v>
+      </c>
+      <c r="F31">
+        <v>0.01904064679195062</v>
+      </c>
+      <c r="G31">
+        <v>-0.02308379535151868</v>
+      </c>
+      <c r="H31">
+        <v>-0.04198123846039249</v>
+      </c>
+      <c r="I31">
+        <v>0.06874157516829739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02341900746060541</v>
+        <v>0.01768987142112087</v>
       </c>
       <c r="C32">
-        <v>0.03051221279572847</v>
+        <v>0.03860715700697871</v>
       </c>
       <c r="D32">
-        <v>0.1095456995084352</v>
+        <v>0.1141919485204432</v>
       </c>
       <c r="E32">
-        <v>-0.05698806327431222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0002763798124908982</v>
+      </c>
+      <c r="F32">
+        <v>0.04532925062601452</v>
+      </c>
+      <c r="G32">
+        <v>-0.02756037225278557</v>
+      </c>
+      <c r="H32">
+        <v>-0.02187196866027983</v>
+      </c>
+      <c r="I32">
+        <v>0.07478964965859701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0178582560532703</v>
+        <v>0.0113129013388711</v>
       </c>
       <c r="C33">
-        <v>0.04087649162162073</v>
+        <v>0.05565468726577757</v>
       </c>
       <c r="D33">
-        <v>0.1541149963314759</v>
+        <v>0.1342356521486508</v>
       </c>
       <c r="E33">
-        <v>-0.04825543549331501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01113005153610846</v>
+      </c>
+      <c r="F33">
+        <v>0.02277639127311359</v>
+      </c>
+      <c r="G33">
+        <v>-0.02949909523624693</v>
+      </c>
+      <c r="H33">
+        <v>-0.0549126135663727</v>
+      </c>
+      <c r="I33">
+        <v>0.01430674759743661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02856526309500927</v>
+        <v>0.01260322423806304</v>
       </c>
       <c r="C34">
-        <v>0.0578706799348685</v>
+        <v>0.0635826081624286</v>
       </c>
       <c r="D34">
-        <v>0.05466473073079408</v>
+        <v>0.03573035627702258</v>
       </c>
       <c r="E34">
-        <v>0.04031525704599413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02818599068027528</v>
+      </c>
+      <c r="F34">
+        <v>-0.03804822376477844</v>
+      </c>
+      <c r="G34">
+        <v>-0.01017664961715498</v>
+      </c>
+      <c r="H34">
+        <v>-0.05717146697197624</v>
+      </c>
+      <c r="I34">
+        <v>0.004003371978488233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001050277976352772</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004577262013874919</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01502692103905565</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.002018325893677526</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007850986780067521</v>
+      </c>
+      <c r="G35">
+        <v>-0.000630021633247028</v>
+      </c>
+      <c r="H35">
+        <v>-0.008036628459623288</v>
+      </c>
+      <c r="I35">
+        <v>-0.002765477853397602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01142487399853239</v>
+        <v>0.01363089464067183</v>
       </c>
       <c r="C36">
-        <v>0.003811843464507269</v>
+        <v>0.01773034742305831</v>
       </c>
       <c r="D36">
-        <v>0.09951483611865151</v>
+        <v>0.08690379044169354</v>
       </c>
       <c r="E36">
-        <v>-0.04892416774771344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004513112160442418</v>
+      </c>
+      <c r="F36">
+        <v>0.03466297356950586</v>
+      </c>
+      <c r="G36">
+        <v>-0.02163291785010201</v>
+      </c>
+      <c r="H36">
+        <v>-0.06063367926274004</v>
+      </c>
+      <c r="I36">
+        <v>0.02881508084092244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008798991269103608</v>
+        <v>0.0171700953011941</v>
       </c>
       <c r="C38">
-        <v>0.01235888636125045</v>
+        <v>0.01741910348279194</v>
       </c>
       <c r="D38">
-        <v>0.09316813929789901</v>
+        <v>0.08862611799065476</v>
       </c>
       <c r="E38">
-        <v>-0.03470561071711247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01653268613581572</v>
+      </c>
+      <c r="F38">
+        <v>-0.011482270951927</v>
+      </c>
+      <c r="G38">
+        <v>-0.03791248463416162</v>
+      </c>
+      <c r="H38">
+        <v>-0.04295242386098968</v>
+      </c>
+      <c r="I38">
+        <v>0.02865985238033003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02222072178496334</v>
+        <v>0.009691412622023199</v>
       </c>
       <c r="C39">
-        <v>0.05725219134343328</v>
+        <v>0.0755029646466433</v>
       </c>
       <c r="D39">
-        <v>0.1158502435403811</v>
+        <v>0.1096131683187752</v>
       </c>
       <c r="E39">
-        <v>0.01716987585708745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04217098562445308</v>
+      </c>
+      <c r="F39">
+        <v>-0.008856778356395156</v>
+      </c>
+      <c r="G39">
+        <v>-0.01713237000452666</v>
+      </c>
+      <c r="H39">
+        <v>-0.1014220979763628</v>
+      </c>
+      <c r="I39">
+        <v>-0.04088901122569327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01525733890175086</v>
+        <v>0.007738509017805557</v>
       </c>
       <c r="C40">
-        <v>0.03991456669560815</v>
+        <v>0.04187835648055176</v>
       </c>
       <c r="D40">
-        <v>0.1163041494743123</v>
+        <v>0.09844051080886508</v>
       </c>
       <c r="E40">
-        <v>-0.04202091067392741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01733466944502086</v>
+      </c>
+      <c r="F40">
+        <v>0.0140164552224943</v>
+      </c>
+      <c r="G40">
+        <v>-0.2462618327581232</v>
+      </c>
+      <c r="H40">
+        <v>-0.021419224850599</v>
+      </c>
+      <c r="I40">
+        <v>0.1857779088824126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01812524292301121</v>
+        <v>0.01665497089463363</v>
       </c>
       <c r="C41">
-        <v>0.003212423216417803</v>
+        <v>0.01549868780353483</v>
       </c>
       <c r="D41">
-        <v>0.07472468422945258</v>
+        <v>0.05351180927616758</v>
       </c>
       <c r="E41">
-        <v>-0.04485487965716412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01695541998869991</v>
+      </c>
+      <c r="F41">
+        <v>0.01639332079083398</v>
+      </c>
+      <c r="G41">
+        <v>-0.02644124758472968</v>
+      </c>
+      <c r="H41">
+        <v>-0.02934666002652394</v>
+      </c>
+      <c r="I41">
+        <v>0.04041027158279085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01104959610426762</v>
+        <v>0.009418456734867185</v>
       </c>
       <c r="C43">
-        <v>0.008059769381466509</v>
+        <v>0.01703151304672402</v>
       </c>
       <c r="D43">
-        <v>0.09096717703627587</v>
+        <v>0.06754756545403044</v>
       </c>
       <c r="E43">
-        <v>-0.04214793152800512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005507017521677168</v>
+      </c>
+      <c r="F43">
+        <v>0.01406445467441791</v>
+      </c>
+      <c r="G43">
+        <v>-0.03225889501192607</v>
+      </c>
+      <c r="H43">
+        <v>-0.06004746855158755</v>
+      </c>
+      <c r="I43">
+        <v>0.04194195914922946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.008165013009609414</v>
+        <v>0.008522580601143283</v>
       </c>
       <c r="C44">
-        <v>0.03916969440270018</v>
+        <v>0.04678610997546559</v>
       </c>
       <c r="D44">
-        <v>0.09794524692223022</v>
+        <v>0.1104160358629651</v>
       </c>
       <c r="E44">
-        <v>-0.04772669623361116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.002786740170383619</v>
+      </c>
+      <c r="F44">
+        <v>0.01951972019460411</v>
+      </c>
+      <c r="G44">
+        <v>-0.0320845061340713</v>
+      </c>
+      <c r="H44">
+        <v>-0.04455263153218651</v>
+      </c>
+      <c r="I44">
+        <v>-0.03228112158588901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01027318147771253</v>
+        <v>0.001089116181024561</v>
       </c>
       <c r="C46">
-        <v>0.02723348920894031</v>
+        <v>0.03861074462531571</v>
       </c>
       <c r="D46">
-        <v>0.1054706619400513</v>
+        <v>0.08890444027414307</v>
       </c>
       <c r="E46">
-        <v>-0.02877877759355568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01811950015480228</v>
+      </c>
+      <c r="F46">
+        <v>0.02298815500469732</v>
+      </c>
+      <c r="G46">
+        <v>-0.04613857721065062</v>
+      </c>
+      <c r="H46">
+        <v>-0.1125998200576618</v>
+      </c>
+      <c r="I46">
+        <v>0.03112211352698856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08059450908775391</v>
+        <v>0.04058576712019576</v>
       </c>
       <c r="C47">
-        <v>0.1047979636416039</v>
+        <v>0.1203219845408655</v>
       </c>
       <c r="D47">
-        <v>0.06398017524011512</v>
+        <v>0.02725384981375065</v>
       </c>
       <c r="E47">
-        <v>-0.03825939325781413</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009415163291166637</v>
+      </c>
+      <c r="F47">
+        <v>-0.003786210455142189</v>
+      </c>
+      <c r="G47">
+        <v>0.02468283744136838</v>
+      </c>
+      <c r="H47">
+        <v>-0.03870944344752663</v>
+      </c>
+      <c r="I47">
+        <v>0.1275261337209001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006527539249809895</v>
+        <v>0.008546930683069052</v>
       </c>
       <c r="C48">
-        <v>0.01705831801586071</v>
+        <v>0.02606640621746631</v>
       </c>
       <c r="D48">
-        <v>0.09641349967704914</v>
+        <v>0.08809761924138337</v>
       </c>
       <c r="E48">
-        <v>-0.06988831842692872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01129239767769092</v>
+      </c>
+      <c r="F48">
+        <v>0.03960436091114694</v>
+      </c>
+      <c r="G48">
+        <v>-0.03580690018243186</v>
+      </c>
+      <c r="H48">
+        <v>-0.08149220708094171</v>
+      </c>
+      <c r="I48">
+        <v>0.02999322119411515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04210137349376777</v>
+        <v>0.01854247657534779</v>
       </c>
       <c r="C50">
-        <v>0.06164575251751327</v>
+        <v>0.07390096618506764</v>
       </c>
       <c r="D50">
-        <v>0.07839751260132395</v>
+        <v>0.05314290175701804</v>
       </c>
       <c r="E50">
-        <v>-0.02242526409924754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0009669678800115984</v>
+      </c>
+      <c r="F50">
+        <v>0.007490253244966921</v>
+      </c>
+      <c r="G50">
+        <v>-0.03620946744762148</v>
+      </c>
+      <c r="H50">
+        <v>-0.02108605379715079</v>
+      </c>
+      <c r="I50">
+        <v>0.1019769285627881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005031341152501703</v>
+        <v>0.005084860833606638</v>
       </c>
       <c r="C51">
-        <v>0.007856426046562471</v>
+        <v>0.01808300149347293</v>
       </c>
       <c r="D51">
-        <v>0.06463013113668431</v>
+        <v>0.07086586667586782</v>
       </c>
       <c r="E51">
-        <v>0.004151993150071454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02924874260784938</v>
+      </c>
+      <c r="F51">
+        <v>0.03000684117720554</v>
+      </c>
+      <c r="G51">
+        <v>-0.04582376186025235</v>
+      </c>
+      <c r="H51">
+        <v>-0.03838146289382045</v>
+      </c>
+      <c r="I51">
+        <v>0.008772763598478327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.106595934005009</v>
+        <v>0.06753257827423027</v>
       </c>
       <c r="C53">
-        <v>0.1242599167851024</v>
+        <v>0.1522105141448858</v>
       </c>
       <c r="D53">
-        <v>0.0168927016685411</v>
+        <v>-0.007622778236844252</v>
       </c>
       <c r="E53">
-        <v>-0.07321986017388353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0408560680663928</v>
+      </c>
+      <c r="F53">
+        <v>0.05819962843634328</v>
+      </c>
+      <c r="G53">
+        <v>-0.02840693432688076</v>
+      </c>
+      <c r="H53">
+        <v>-0.004181372232534212</v>
+      </c>
+      <c r="I53">
+        <v>0.09916158607607185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01863758691595502</v>
+        <v>0.01325126769170619</v>
       </c>
       <c r="C54">
-        <v>0.02098876130037908</v>
+        <v>0.0371427160676919</v>
       </c>
       <c r="D54">
-        <v>0.111485595866341</v>
+        <v>0.0898490161549601</v>
       </c>
       <c r="E54">
-        <v>-0.01769535402842107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01002572976127158</v>
+      </c>
+      <c r="F54">
+        <v>-0.00274645578529776</v>
+      </c>
+      <c r="G54">
+        <v>-0.05001947055275106</v>
+      </c>
+      <c r="H54">
+        <v>-0.0673977833956934</v>
+      </c>
+      <c r="I54">
+        <v>0.05652254683301989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09416910355462033</v>
+        <v>0.05288725146160309</v>
       </c>
       <c r="C55">
-        <v>0.1028832176853059</v>
+        <v>0.1263249740338966</v>
       </c>
       <c r="D55">
-        <v>0.005057174953170557</v>
+        <v>-0.01863139373382823</v>
       </c>
       <c r="E55">
-        <v>-0.0278630315499048</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003291211055660911</v>
+      </c>
+      <c r="F55">
+        <v>0.02541798052729683</v>
+      </c>
+      <c r="G55">
+        <v>-0.03960926287328796</v>
+      </c>
+      <c r="H55">
+        <v>0.007566645660363754</v>
+      </c>
+      <c r="I55">
+        <v>0.0808130715456663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1339786748551079</v>
+        <v>0.07735892357360696</v>
       </c>
       <c r="C56">
-        <v>0.131126365626651</v>
+        <v>0.1766569779314638</v>
       </c>
       <c r="D56">
-        <v>-0.001982023469313884</v>
+        <v>-0.02221001566554456</v>
       </c>
       <c r="E56">
-        <v>-0.03445964465338704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03334340730608151</v>
+      </c>
+      <c r="F56">
+        <v>0.01874985486836803</v>
+      </c>
+      <c r="G56">
+        <v>-0.04659940827835252</v>
+      </c>
+      <c r="H56">
+        <v>0.02893412854486623</v>
+      </c>
+      <c r="I56">
+        <v>0.08168921330302142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01620411288044935</v>
+        <v>-0.002046917748730725</v>
       </c>
       <c r="C58">
-        <v>0.01896164375247176</v>
+        <v>0.04405671659484033</v>
       </c>
       <c r="D58">
-        <v>0.2042762567021119</v>
+        <v>0.2792280937492645</v>
       </c>
       <c r="E58">
-        <v>-0.07455123307782625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.03753099274208591</v>
+      </c>
+      <c r="F58">
+        <v>0.09042960896292289</v>
+      </c>
+      <c r="G58">
+        <v>-0.07701597410603075</v>
+      </c>
+      <c r="H58">
+        <v>0.1515523296136912</v>
+      </c>
+      <c r="I58">
+        <v>-0.08111837324370869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1703316522970688</v>
+        <v>0.2361954251205615</v>
       </c>
       <c r="C59">
-        <v>-0.1538703782941026</v>
+        <v>-0.09103548175591583</v>
       </c>
       <c r="D59">
-        <v>0.04286703829273652</v>
+        <v>0.05918672883274906</v>
       </c>
       <c r="E59">
-        <v>-0.04804066207911917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03675506296560959</v>
+      </c>
+      <c r="F59">
+        <v>0.01235659064502503</v>
+      </c>
+      <c r="G59">
+        <v>0.002028812046381045</v>
+      </c>
+      <c r="H59">
+        <v>0.01769041163980334</v>
+      </c>
+      <c r="I59">
+        <v>0.01232920798290352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2018638117799831</v>
+        <v>0.1594304108194151</v>
       </c>
       <c r="C60">
-        <v>0.1011978535610012</v>
+        <v>0.1671564970122407</v>
       </c>
       <c r="D60">
-        <v>0.1654475449467059</v>
+        <v>0.08555816420029282</v>
       </c>
       <c r="E60">
-        <v>0.2594266551274145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2498456008298822</v>
+      </c>
+      <c r="F60">
+        <v>-0.1561985630661671</v>
+      </c>
+      <c r="G60">
+        <v>0.2494558352631192</v>
+      </c>
+      <c r="H60">
+        <v>0.1162852779742245</v>
+      </c>
+      <c r="I60">
+        <v>-0.02907148069389788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03369058329993668</v>
+        <v>0.01849994850520277</v>
       </c>
       <c r="C61">
-        <v>0.05545548863864689</v>
+        <v>0.07145180290398358</v>
       </c>
       <c r="D61">
-        <v>0.1120008969295922</v>
+        <v>0.08806517300568945</v>
       </c>
       <c r="E61">
-        <v>-7.408605427669476e-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03452701068564698</v>
+      </c>
+      <c r="F61">
+        <v>-0.01791582211730953</v>
+      </c>
+      <c r="G61">
+        <v>-0.000464599797649365</v>
+      </c>
+      <c r="H61">
+        <v>-0.09515347770734703</v>
+      </c>
+      <c r="I61">
+        <v>0.01055244083794718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01100201211496104</v>
+        <v>0.005646674632153342</v>
       </c>
       <c r="C63">
-        <v>0.02403304971015769</v>
+        <v>0.03510115090926115</v>
       </c>
       <c r="D63">
-        <v>0.0951471373594765</v>
+        <v>0.0746664368113872</v>
       </c>
       <c r="E63">
-        <v>-0.01503414455875565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01994328818421898</v>
+      </c>
+      <c r="F63">
+        <v>0.0190412856574466</v>
+      </c>
+      <c r="G63">
+        <v>-0.02979764388751372</v>
+      </c>
+      <c r="H63">
+        <v>-0.05215448439160474</v>
+      </c>
+      <c r="I63">
+        <v>0.01304887866643614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06318083457477096</v>
+        <v>0.03093831167832354</v>
       </c>
       <c r="C64">
-        <v>0.08143854643136164</v>
+        <v>0.102452252190622</v>
       </c>
       <c r="D64">
-        <v>0.05024205467034063</v>
+        <v>0.03724565355651928</v>
       </c>
       <c r="E64">
-        <v>-0.01031135355988655</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03147177237530538</v>
+      </c>
+      <c r="F64">
+        <v>0.0227783309300065</v>
+      </c>
+      <c r="G64">
+        <v>0.02769264361823543</v>
+      </c>
+      <c r="H64">
+        <v>-0.1139321433098365</v>
+      </c>
+      <c r="I64">
+        <v>-0.03203677900118283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02769073398008563</v>
+        <v>0.02185349276162793</v>
       </c>
       <c r="C65">
-        <v>0.01617203409116885</v>
+        <v>0.0371299785519129</v>
       </c>
       <c r="D65">
-        <v>0.1170398994654358</v>
+        <v>0.106039085233379</v>
       </c>
       <c r="E65">
-        <v>-0.003620972751173678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03796386279329732</v>
+      </c>
+      <c r="F65">
+        <v>0.008499101836058296</v>
+      </c>
+      <c r="G65">
+        <v>-0.007481649500427628</v>
+      </c>
+      <c r="H65">
+        <v>-0.01270675364546713</v>
+      </c>
+      <c r="I65">
+        <v>0.01562928374022565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02647831841081145</v>
+        <v>0.01188388919553222</v>
       </c>
       <c r="C66">
-        <v>0.06330275753325824</v>
+        <v>0.08755355854549947</v>
       </c>
       <c r="D66">
-        <v>0.122411944089562</v>
+        <v>0.1335428106279095</v>
       </c>
       <c r="E66">
-        <v>0.02040944586201396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03447296951672745</v>
+      </c>
+      <c r="F66">
+        <v>-0.01836014939577835</v>
+      </c>
+      <c r="G66">
+        <v>-0.01112145936783985</v>
+      </c>
+      <c r="H66">
+        <v>-0.05826175185940099</v>
+      </c>
+      <c r="I66">
+        <v>-0.05496699546444175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02781750460184339</v>
+        <v>0.02749207843291518</v>
       </c>
       <c r="C67">
-        <v>0.02422569471394286</v>
+        <v>0.03030520989775579</v>
       </c>
       <c r="D67">
-        <v>0.0485690005379212</v>
+        <v>0.03815355120356798</v>
       </c>
       <c r="E67">
-        <v>-0.009381948311415384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0007375539979643109</v>
+      </c>
+      <c r="F67">
+        <v>-0.03141270609657318</v>
+      </c>
+      <c r="G67">
+        <v>-0.02985462464910991</v>
+      </c>
+      <c r="H67">
+        <v>-0.05632247421365346</v>
+      </c>
+      <c r="I67">
+        <v>0.02038645118730982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2081660690437386</v>
+        <v>0.2644160228157375</v>
       </c>
       <c r="C68">
-        <v>-0.1671855005699221</v>
+        <v>-0.09123230700586385</v>
       </c>
       <c r="D68">
-        <v>0.03019706528563706</v>
+        <v>0.02926394703327793</v>
       </c>
       <c r="E68">
-        <v>-0.01272400399929035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003108104270749549</v>
+      </c>
+      <c r="F68">
+        <v>0.02331269583559834</v>
+      </c>
+      <c r="G68">
+        <v>-0.0502399122895052</v>
+      </c>
+      <c r="H68">
+        <v>0.04947535190826275</v>
+      </c>
+      <c r="I68">
+        <v>0.07690216289490336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06273167823618243</v>
+        <v>0.02836370064204563</v>
       </c>
       <c r="C69">
-        <v>0.1144070355286975</v>
+        <v>0.120438579399446</v>
       </c>
       <c r="D69">
-        <v>0.08938414454982044</v>
+        <v>0.04449176332405715</v>
       </c>
       <c r="E69">
-        <v>-0.01869726501917363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007112190558806503</v>
+      </c>
+      <c r="F69">
+        <v>-0.008820689035716566</v>
+      </c>
+      <c r="G69">
+        <v>0.01190541328675519</v>
+      </c>
+      <c r="H69">
+        <v>-0.04252976803378131</v>
+      </c>
+      <c r="I69">
+        <v>0.07769197073299114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2113779074341119</v>
+        <v>0.2656010129869661</v>
       </c>
       <c r="C71">
-        <v>-0.1860037335929862</v>
+        <v>-0.1059487831082551</v>
       </c>
       <c r="D71">
-        <v>0.03031189604398484</v>
+        <v>0.02323739133271373</v>
       </c>
       <c r="E71">
-        <v>-0.02344690675067621</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008270647273136037</v>
+      </c>
+      <c r="F71">
+        <v>0.02090031496905581</v>
+      </c>
+      <c r="G71">
+        <v>-0.05085917302617542</v>
+      </c>
+      <c r="H71">
+        <v>0.01445247273424087</v>
+      </c>
+      <c r="I71">
+        <v>0.1504342466717797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1064667530665188</v>
+        <v>0.06628468101598319</v>
       </c>
       <c r="C72">
-        <v>0.07233142286307784</v>
+        <v>0.1191564333491934</v>
       </c>
       <c r="D72">
-        <v>0.09337756733225837</v>
+        <v>0.06916835853700075</v>
       </c>
       <c r="E72">
-        <v>0.04941019295333036</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08763655110055243</v>
+      </c>
+      <c r="F72">
+        <v>-0.009935482933126022</v>
+      </c>
+      <c r="G72">
+        <v>-0.008083685597974118</v>
+      </c>
+      <c r="H72">
+        <v>-0.05291009692358494</v>
+      </c>
+      <c r="I72">
+        <v>-0.02191872638760042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1790459246967659</v>
+        <v>0.1422726497728285</v>
       </c>
       <c r="C73">
-        <v>0.04656450269707637</v>
+        <v>0.1238624645626757</v>
       </c>
       <c r="D73">
-        <v>0.2177206707960938</v>
+        <v>0.09036469219294695</v>
       </c>
       <c r="E73">
-        <v>0.4251917212958181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.4329149052699856</v>
+      </c>
+      <c r="F73">
+        <v>-0.2268070073866409</v>
+      </c>
+      <c r="G73">
+        <v>0.4351350636460952</v>
+      </c>
+      <c r="H73">
+        <v>0.03381307019061026</v>
+      </c>
+      <c r="I73">
+        <v>-0.01646549870427242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1057266674081177</v>
+        <v>0.06068884856170245</v>
       </c>
       <c r="C74">
-        <v>0.1086862717583196</v>
+        <v>0.1367006896639223</v>
       </c>
       <c r="D74">
-        <v>-0.0208488053401955</v>
+        <v>-0.03700907321887307</v>
       </c>
       <c r="E74">
-        <v>-0.05292336827076848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01838858903027649</v>
+      </c>
+      <c r="F74">
+        <v>0.05211242316428109</v>
+      </c>
+      <c r="G74">
+        <v>-0.003158094078728439</v>
+      </c>
+      <c r="H74">
+        <v>0.01883466008035469</v>
+      </c>
+      <c r="I74">
+        <v>0.09205035798466223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2413131815723702</v>
+        <v>0.145992925365607</v>
       </c>
       <c r="C75">
-        <v>0.1937348298461752</v>
+        <v>0.2594953663474453</v>
       </c>
       <c r="D75">
-        <v>-0.106444095970573</v>
+        <v>-0.1323742090667128</v>
       </c>
       <c r="E75">
-        <v>-0.01740561472242352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08066226505189254</v>
+      </c>
+      <c r="F75">
+        <v>-0.03885410186429612</v>
+      </c>
+      <c r="G75">
+        <v>-0.06372364389777026</v>
+      </c>
+      <c r="H75">
+        <v>0.0257366733548187</v>
+      </c>
+      <c r="I75">
+        <v>0.05191959516004039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1443951984234142</v>
+        <v>0.08166135252074588</v>
       </c>
       <c r="C76">
-        <v>0.1374040613240162</v>
+        <v>0.1776138429475987</v>
       </c>
       <c r="D76">
-        <v>0.01052521049260228</v>
+        <v>-0.02377585966104064</v>
       </c>
       <c r="E76">
-        <v>-0.04210520181687256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03488175371990786</v>
+      </c>
+      <c r="F76">
+        <v>0.008890931658394004</v>
+      </c>
+      <c r="G76">
+        <v>-0.05733530106479594</v>
+      </c>
+      <c r="H76">
+        <v>-0.01080179891064393</v>
+      </c>
+      <c r="I76">
+        <v>0.08377925262829768</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02610648223236648</v>
+        <v>0.03345810652549222</v>
       </c>
       <c r="C77">
-        <v>0.08489363296566646</v>
+        <v>0.09787041183314502</v>
       </c>
       <c r="D77">
-        <v>0.06048867865180889</v>
+        <v>0.2438387025183116</v>
       </c>
       <c r="E77">
-        <v>-0.3285418775553724</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7148114467470807</v>
+      </c>
+      <c r="F77">
+        <v>-0.361042742705836</v>
+      </c>
+      <c r="G77">
+        <v>0.358246865521605</v>
+      </c>
+      <c r="H77">
+        <v>0.2150241731838528</v>
+      </c>
+      <c r="I77">
+        <v>0.1311058256931723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02560116492668258</v>
+        <v>0.01917583385413698</v>
       </c>
       <c r="C78">
-        <v>0.06985720210929972</v>
+        <v>0.08392434921919459</v>
       </c>
       <c r="D78">
-        <v>0.1612980716225351</v>
+        <v>0.1427600448394332</v>
       </c>
       <c r="E78">
-        <v>-0.02610989258609794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04404266844833736</v>
+      </c>
+      <c r="F78">
+        <v>0.0395501661947044</v>
+      </c>
+      <c r="G78">
+        <v>-0.01855616412270564</v>
+      </c>
+      <c r="H78">
+        <v>-0.0218741287835802</v>
+      </c>
+      <c r="I78">
+        <v>-0.004844461802507986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07805398779358526</v>
+        <v>0.04222969750081491</v>
       </c>
       <c r="C79">
-        <v>0.1470247280592434</v>
+        <v>0.1702862563124235</v>
       </c>
       <c r="D79">
-        <v>-0.1007634229540471</v>
+        <v>-0.05306082933648702</v>
       </c>
       <c r="E79">
-        <v>-0.5889783442046802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1298195398536622</v>
+      </c>
+      <c r="F79">
+        <v>0.7994318515770388</v>
+      </c>
+      <c r="G79">
+        <v>0.4438803379735494</v>
+      </c>
+      <c r="H79">
+        <v>0.07852160345484339</v>
+      </c>
+      <c r="I79">
+        <v>-0.1239190027853739</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.008802693659802336</v>
+        <v>-0.0003937435160823765</v>
       </c>
       <c r="C80">
-        <v>0.04966224050323613</v>
+        <v>0.05219458433116867</v>
       </c>
       <c r="D80">
-        <v>0.04697286368097656</v>
+        <v>0.04364539979879858</v>
       </c>
       <c r="E80">
-        <v>-0.004502640142813319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.01893536127246144</v>
+      </c>
+      <c r="F80">
+        <v>0.01660178300976768</v>
+      </c>
+      <c r="G80">
+        <v>-0.06645308506071117</v>
+      </c>
+      <c r="H80">
+        <v>-0.006694506414788776</v>
+      </c>
+      <c r="I80">
+        <v>0.03873119443681289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1212123985468903</v>
+        <v>0.06268055759526539</v>
       </c>
       <c r="C81">
-        <v>0.1364274255504849</v>
+        <v>0.1642351764219974</v>
       </c>
       <c r="D81">
-        <v>-0.06988480369201464</v>
+        <v>-0.07936242633350259</v>
       </c>
       <c r="E81">
-        <v>-0.09828436832472619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07488751606976478</v>
+      </c>
+      <c r="F81">
+        <v>0.05075043657548833</v>
+      </c>
+      <c r="G81">
+        <v>-0.07822884602431017</v>
+      </c>
+      <c r="H81">
+        <v>-0.04171582223970693</v>
+      </c>
+      <c r="I81">
+        <v>0.124568167798358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2477470080307183</v>
+        <v>0.1235350879061545</v>
       </c>
       <c r="C82">
-        <v>0.294851697272685</v>
+        <v>0.3218594931237548</v>
       </c>
       <c r="D82">
-        <v>-0.2150377860021058</v>
+        <v>-0.2277732417219681</v>
       </c>
       <c r="E82">
-        <v>0.07682973089073541</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03843833811389013</v>
+      </c>
+      <c r="F82">
+        <v>-0.112742713684794</v>
+      </c>
+      <c r="G82">
+        <v>-0.07641452676687159</v>
+      </c>
+      <c r="H82">
+        <v>-0.06231031156154834</v>
+      </c>
+      <c r="I82">
+        <v>0.06322456673241274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.003216099302960595</v>
+        <v>-0.006227314609594485</v>
       </c>
       <c r="C83">
-        <v>0.05939275126439975</v>
+        <v>0.04414274768182773</v>
       </c>
       <c r="D83">
-        <v>0.02917682367240334</v>
+        <v>0.04447462237286249</v>
       </c>
       <c r="E83">
-        <v>-0.07718074515294814</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.1075940212911144</v>
+      </c>
+      <c r="F83">
+        <v>0.002600948889479342</v>
+      </c>
+      <c r="G83">
+        <v>-0.05374187409288353</v>
+      </c>
+      <c r="H83">
+        <v>-0.07217543031252224</v>
+      </c>
+      <c r="I83">
+        <v>-0.01946373312242847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002177560071633447</v>
+        <v>0.0005663037691133414</v>
       </c>
       <c r="C84">
-        <v>0.000350111694418585</v>
+        <v>0.01331247827723237</v>
       </c>
       <c r="D84">
-        <v>0.0003022543781462732</v>
+        <v>0.0371421611275847</v>
       </c>
       <c r="E84">
-        <v>-0.0003342703253416253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.006249795811710202</v>
+      </c>
+      <c r="F84">
+        <v>0.01778834566452994</v>
+      </c>
+      <c r="G84">
+        <v>-0.03843672545829602</v>
+      </c>
+      <c r="H84">
+        <v>0.01308841610315648</v>
+      </c>
+      <c r="I84">
+        <v>-0.03289825838795306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.148794013259486</v>
+        <v>0.08146567974937186</v>
       </c>
       <c r="C85">
-        <v>0.1416726761201964</v>
+        <v>0.1861244491559316</v>
       </c>
       <c r="D85">
-        <v>-0.04424498474061949</v>
+        <v>-0.08720897975692765</v>
       </c>
       <c r="E85">
-        <v>-0.002743357566517779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0001988791665205501</v>
+      </c>
+      <c r="F85">
+        <v>0.07595088660026508</v>
+      </c>
+      <c r="G85">
+        <v>-0.0211400716693845</v>
+      </c>
+      <c r="H85">
+        <v>0.009967134862260212</v>
+      </c>
+      <c r="I85">
+        <v>0.0851157554311993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01662219767455124</v>
+        <v>0.01329365294460068</v>
       </c>
       <c r="C86">
-        <v>0.02420855166345144</v>
+        <v>0.03237108593544716</v>
       </c>
       <c r="D86">
-        <v>0.08557206684247702</v>
+        <v>0.1025319422607495</v>
       </c>
       <c r="E86">
-        <v>-0.0685672920978959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04555401589030113</v>
+      </c>
+      <c r="F86">
+        <v>-0.01769791621153672</v>
+      </c>
+      <c r="G86">
+        <v>-0.01368833848820516</v>
+      </c>
+      <c r="H86">
+        <v>0.001260034059617293</v>
+      </c>
+      <c r="I86">
+        <v>0.1334036321342125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02266601925496402</v>
+        <v>0.02150118936344599</v>
       </c>
       <c r="C87">
-        <v>0.02095474451782518</v>
+        <v>0.04743166925852273</v>
       </c>
       <c r="D87">
-        <v>0.1236876562601981</v>
+        <v>0.1488722565087361</v>
       </c>
       <c r="E87">
-        <v>-0.05804544537513731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01830367842804571</v>
+      </c>
+      <c r="F87">
+        <v>0.03789013285309759</v>
+      </c>
+      <c r="G87">
+        <v>-0.06481481527880996</v>
+      </c>
+      <c r="H87">
+        <v>-0.02216556484680265</v>
+      </c>
+      <c r="I87">
+        <v>-0.08123981210547729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05812219212533327</v>
+        <v>0.03775797943324683</v>
       </c>
       <c r="C88">
-        <v>0.04328466004890667</v>
+        <v>0.06264057986117177</v>
       </c>
       <c r="D88">
-        <v>0.05216524823114251</v>
+        <v>0.01786467623385932</v>
       </c>
       <c r="E88">
-        <v>-0.03174275326423402</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02073446316847374</v>
+      </c>
+      <c r="F88">
+        <v>0.029075243024994</v>
+      </c>
+      <c r="G88">
+        <v>0.008431800220812342</v>
+      </c>
+      <c r="H88">
+        <v>-0.02840745497233133</v>
+      </c>
+      <c r="I88">
+        <v>0.05471327097884121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.313056449318981</v>
+        <v>0.3986945606684332</v>
       </c>
       <c r="C89">
-        <v>-0.3338104816217798</v>
+        <v>-0.1987871542012884</v>
       </c>
       <c r="D89">
-        <v>0.02547031508106898</v>
+        <v>0.02631967148338997</v>
       </c>
       <c r="E89">
-        <v>-0.1384327681143473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05476405118595284</v>
+      </c>
+      <c r="F89">
+        <v>0.06213862664403121</v>
+      </c>
+      <c r="G89">
+        <v>-0.09779374015120071</v>
+      </c>
+      <c r="H89">
+        <v>-0.1836376712283641</v>
+      </c>
+      <c r="I89">
+        <v>-0.2855363665392249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2510339848428541</v>
+        <v>0.3112292194642238</v>
       </c>
       <c r="C90">
-        <v>-0.2486741525662907</v>
+        <v>-0.1358489133365179</v>
       </c>
       <c r="D90">
-        <v>0.02917862891444159</v>
+        <v>0.03719470588337476</v>
       </c>
       <c r="E90">
-        <v>-0.007990805658767067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01162275680101188</v>
+      </c>
+      <c r="F90">
+        <v>-0.01881151737615886</v>
+      </c>
+      <c r="G90">
+        <v>-0.05058125067182152</v>
+      </c>
+      <c r="H90">
+        <v>0.03281926608255362</v>
+      </c>
+      <c r="I90">
+        <v>0.0509546511329914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1573632308963968</v>
+        <v>0.08475369730966494</v>
       </c>
       <c r="C91">
-        <v>0.1817243996908794</v>
+        <v>0.2063240767153915</v>
       </c>
       <c r="D91">
-        <v>-0.1050701935992324</v>
+        <v>-0.1117309184573555</v>
       </c>
       <c r="E91">
-        <v>-0.1131653869073964</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07730457449684437</v>
+      </c>
+      <c r="F91">
+        <v>0.07752595138658146</v>
+      </c>
+      <c r="G91">
+        <v>-0.02287666231116414</v>
+      </c>
+      <c r="H91">
+        <v>0.01284819644415341</v>
+      </c>
+      <c r="I91">
+        <v>0.1216459963367974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2261793423070405</v>
+        <v>0.3174438049597628</v>
       </c>
       <c r="C92">
-        <v>-0.2594834978451236</v>
+        <v>-0.1713369590660636</v>
       </c>
       <c r="D92">
-        <v>-0.0429457581521697</v>
+        <v>-0.001632691550664257</v>
       </c>
       <c r="E92">
-        <v>-0.06661543033152879</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07589183090031519</v>
+      </c>
+      <c r="F92">
+        <v>0.02313861310098546</v>
+      </c>
+      <c r="G92">
+        <v>-0.02214705089135596</v>
+      </c>
+      <c r="H92">
+        <v>-0.0009864248549072978</v>
+      </c>
+      <c r="I92">
+        <v>-0.1025548866608502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2743466675616899</v>
+        <v>0.3256724194544451</v>
       </c>
       <c r="C93">
-        <v>-0.2561108670222638</v>
+        <v>-0.1418776114212597</v>
       </c>
       <c r="D93">
-        <v>0.01767264623587354</v>
+        <v>-0.008972142535593952</v>
       </c>
       <c r="E93">
-        <v>0.003622136476266951</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.03685470342344929</v>
+      </c>
+      <c r="F93">
+        <v>0.01398340908475235</v>
+      </c>
+      <c r="G93">
+        <v>0.02463569414239979</v>
+      </c>
+      <c r="H93">
+        <v>0.02451109349568148</v>
+      </c>
+      <c r="I93">
+        <v>0.1053533609343903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3081853596295404</v>
+        <v>0.1767306571537143</v>
       </c>
       <c r="C94">
-        <v>0.2626746771675533</v>
+        <v>0.3472725064645809</v>
       </c>
       <c r="D94">
-        <v>-0.3584519372267569</v>
+        <v>-0.3549064126175394</v>
       </c>
       <c r="E94">
-        <v>0.1449945941134674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04671021469201376</v>
+      </c>
+      <c r="F94">
+        <v>-0.1099972098312611</v>
+      </c>
+      <c r="G94">
+        <v>-0.2694649622556196</v>
+      </c>
+      <c r="H94">
+        <v>0.1254204442908956</v>
+      </c>
+      <c r="I94">
+        <v>-0.3992179758081902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0287372358199981</v>
+        <v>0.02541784206961932</v>
       </c>
       <c r="C95">
-        <v>0.0373955010389883</v>
+        <v>0.06211899007070818</v>
       </c>
       <c r="D95">
-        <v>0.08255912762661657</v>
+        <v>0.1143764490609375</v>
       </c>
       <c r="E95">
-        <v>-0.1907811189508521</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.2151970844830284</v>
+      </c>
+      <c r="F95">
+        <v>-0.1318151354713019</v>
+      </c>
+      <c r="G95">
+        <v>0.1391984562460864</v>
+      </c>
+      <c r="H95">
+        <v>-0.4627913210918176</v>
+      </c>
+      <c r="I95">
+        <v>-0.5380595996934475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008529316895370871</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001364592250528291</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0009211744512789512</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0003856692799834944</v>
+      </c>
+      <c r="F97">
+        <v>-0.001624523704938925</v>
+      </c>
+      <c r="G97">
+        <v>0.001258052169946784</v>
+      </c>
+      <c r="H97">
+        <v>-0.000309599482071993</v>
+      </c>
+      <c r="I97">
+        <v>8.414553940952494e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1543165587177451</v>
+        <v>0.1252715516291844</v>
       </c>
       <c r="C98">
-        <v>0.06807415794719614</v>
+        <v>0.1308460044107573</v>
       </c>
       <c r="D98">
-        <v>0.1238799133660231</v>
+        <v>0.06565448955802018</v>
       </c>
       <c r="E98">
-        <v>0.2782714567652257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2880791601783743</v>
+      </c>
+      <c r="F98">
+        <v>-0.1482690164280384</v>
+      </c>
+      <c r="G98">
+        <v>0.2574253611726811</v>
+      </c>
+      <c r="H98">
+        <v>0.06971215192166187</v>
+      </c>
+      <c r="I98">
+        <v>-0.02893362919956686</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001006471014726982</v>
+        <v>0.0003061607780681474</v>
       </c>
       <c r="C101">
-        <v>0.01974523908652046</v>
+        <v>0.02890473691583079</v>
       </c>
       <c r="D101">
-        <v>0.1021183606515306</v>
+        <v>0.1024309683264109</v>
       </c>
       <c r="E101">
-        <v>-0.02179560134734632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0314244752652957</v>
+      </c>
+      <c r="F101">
+        <v>0.03029860337061617</v>
+      </c>
+      <c r="G101">
+        <v>-0.04939047785747201</v>
+      </c>
+      <c r="H101">
+        <v>-0.1024812284473903</v>
+      </c>
+      <c r="I101">
+        <v>0.03192013010927899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1123695762747305</v>
+        <v>0.0507716787173371</v>
       </c>
       <c r="C102">
-        <v>0.1510783667501867</v>
+        <v>0.1532920592047995</v>
       </c>
       <c r="D102">
-        <v>-0.07234295107213713</v>
+        <v>-0.09249401654581189</v>
       </c>
       <c r="E102">
-        <v>0.01964005267085431</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02857248540975016</v>
+      </c>
+      <c r="F102">
+        <v>-0.06788453566985923</v>
+      </c>
+      <c r="G102">
+        <v>0.003019619685533288</v>
+      </c>
+      <c r="H102">
+        <v>-0.05266408717034986</v>
+      </c>
+      <c r="I102">
+        <v>0.01191062256232903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
